--- a/Code/Results/Cases/Case_5_141/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_141/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009576361163434</v>
+        <v>1.041718129476462</v>
       </c>
       <c r="D2">
-        <v>1.023776810340041</v>
+        <v>1.042656494379526</v>
       </c>
       <c r="E2">
-        <v>1.014442092968018</v>
+        <v>1.039923658474874</v>
       </c>
       <c r="F2">
-        <v>1.01384358523587</v>
+        <v>1.049810263742105</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044721789260295</v>
+        <v>1.040884733319624</v>
       </c>
       <c r="J2">
-        <v>1.031474369515525</v>
+        <v>1.04679782858849</v>
       </c>
       <c r="K2">
-        <v>1.034914543971465</v>
+        <v>1.045432565200145</v>
       </c>
       <c r="L2">
-        <v>1.025703827323234</v>
+        <v>1.042707466958246</v>
       </c>
       <c r="M2">
-        <v>1.025113367962344</v>
+        <v>1.052566286466878</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015226434322981</v>
+        <v>1.042869221613038</v>
       </c>
       <c r="D3">
-        <v>1.027929454555253</v>
+        <v>1.043516771764116</v>
       </c>
       <c r="E3">
-        <v>1.01906503596393</v>
+        <v>1.040909820301119</v>
       </c>
       <c r="F3">
-        <v>1.020130850073531</v>
+        <v>1.051165926162506</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046706035513088</v>
+        <v>1.041227476843246</v>
       </c>
       <c r="J3">
-        <v>1.035310445740418</v>
+        <v>1.047594060588326</v>
       </c>
       <c r="K3">
-        <v>1.038217021975651</v>
+        <v>1.046103589213633</v>
       </c>
       <c r="L3">
-        <v>1.029459651874106</v>
+        <v>1.043503483737747</v>
       </c>
       <c r="M3">
-        <v>1.030512472731656</v>
+        <v>1.05373286805462</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.018792956052264</v>
+        <v>1.04361378452914</v>
       </c>
       <c r="D4">
-        <v>1.030553698072853</v>
+        <v>1.044073158814578</v>
       </c>
       <c r="E4">
-        <v>1.021988886854885</v>
+        <v>1.04154798876888</v>
       </c>
       <c r="F4">
-        <v>1.024102776005545</v>
+        <v>1.05204321100008</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04794884883937</v>
+        <v>1.041447928910683</v>
       </c>
       <c r="J4">
-        <v>1.037727853682368</v>
+        <v>1.048108469608141</v>
       </c>
       <c r="K4">
-        <v>1.040296838237373</v>
+        <v>1.046536877311261</v>
       </c>
       <c r="L4">
-        <v>1.031828975717383</v>
+        <v>1.044018003664952</v>
       </c>
       <c r="M4">
-        <v>1.033918750993022</v>
+        <v>1.054487269802906</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.020271851428885</v>
+        <v>1.043926735579288</v>
       </c>
       <c r="D5">
-        <v>1.031642507465629</v>
+        <v>1.044306999761361</v>
       </c>
       <c r="E5">
-        <v>1.023202597949586</v>
+        <v>1.041816288834822</v>
       </c>
       <c r="F5">
-        <v>1.025750576822752</v>
+        <v>1.052412043395755</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048461824677984</v>
+        <v>1.041540289945504</v>
       </c>
       <c r="J5">
-        <v>1.038729243751893</v>
+        <v>1.048324534994144</v>
       </c>
       <c r="K5">
-        <v>1.041158050895824</v>
+        <v>1.046718814549536</v>
       </c>
       <c r="L5">
-        <v>1.03281103843422</v>
+        <v>1.044234175411174</v>
       </c>
       <c r="M5">
-        <v>1.035330774000248</v>
+        <v>1.054804313639439</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020518990426876</v>
+        <v>1.04397927777807</v>
       </c>
       <c r="D6">
-        <v>1.031824494653653</v>
+        <v>1.044346258935551</v>
       </c>
       <c r="E6">
-        <v>1.02340549697863</v>
+        <v>1.041861338439575</v>
       </c>
       <c r="F6">
-        <v>1.026025989758868</v>
+        <v>1.052473973333474</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048547407887269</v>
+        <v>1.041555779191745</v>
       </c>
       <c r="J6">
-        <v>1.038896525863956</v>
+        <v>1.048360802079759</v>
       </c>
       <c r="K6">
-        <v>1.04130189640642</v>
+        <v>1.046749349900623</v>
       </c>
       <c r="L6">
-        <v>1.032975126506607</v>
+        <v>1.044270463853463</v>
       </c>
       <c r="M6">
-        <v>1.035566713210533</v>
+        <v>1.054857540502967</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01881279635351</v>
+        <v>1.043617966442717</v>
       </c>
       <c r="D7">
-        <v>1.030568302687783</v>
+        <v>1.044076283660331</v>
       </c>
       <c r="E7">
-        <v>1.022005164456915</v>
+        <v>1.041551573751472</v>
       </c>
       <c r="F7">
-        <v>1.024124879068259</v>
+        <v>1.052048139267552</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047955740149519</v>
+        <v>1.041449164288486</v>
       </c>
       <c r="J7">
-        <v>1.037741292011122</v>
+        <v>1.048111357438399</v>
       </c>
       <c r="K7">
-        <v>1.040308396766116</v>
+        <v>1.04653930921775</v>
       </c>
       <c r="L7">
-        <v>1.031842152349033</v>
+        <v>1.04402089268188</v>
       </c>
       <c r="M7">
-        <v>1.033937695828345</v>
+        <v>1.054491506574561</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.01150494046577</v>
+        <v>1.042107203459481</v>
       </c>
       <c r="D8">
-        <v>1.025193598084865</v>
+        <v>1.042947285318417</v>
       </c>
       <c r="E8">
-        <v>1.016018840966502</v>
+        <v>1.040256925331787</v>
       </c>
       <c r="F8">
-        <v>1.015989014130502</v>
+        <v>1.05026840105257</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045401103744925</v>
+        <v>1.041000839884692</v>
       </c>
       <c r="J8">
-        <v>1.032784592370783</v>
+        <v>1.047067086400659</v>
       </c>
       <c r="K8">
-        <v>1.036042786257821</v>
+        <v>1.04565952955525</v>
       </c>
       <c r="L8">
-        <v>1.026986112116741</v>
+        <v>1.04297660014253</v>
       </c>
       <c r="M8">
-        <v>1.02695667351921</v>
+        <v>1.052960633593913</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9978965890635549</v>
+        <v>1.039442901178528</v>
       </c>
       <c r="D9">
-        <v>1.015212176933051</v>
+        <v>1.040955757544342</v>
       </c>
       <c r="E9">
-        <v>1.004920045636926</v>
+        <v>1.037975986035269</v>
       </c>
       <c r="F9">
-        <v>1.000862569482479</v>
+        <v>1.047132777763804</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040567886524309</v>
+        <v>1.040200661456431</v>
       </c>
       <c r="J9">
-        <v>1.023523843468737</v>
+        <v>1.045220732527836</v>
       </c>
       <c r="K9">
-        <v>1.028063176029631</v>
+        <v>1.044102253303261</v>
       </c>
       <c r="L9">
-        <v>1.017933799715571</v>
+        <v>1.041132131337511</v>
       </c>
       <c r="M9">
-        <v>1.013941667583189</v>
+        <v>1.050259461606173</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9882628852117251</v>
+        <v>1.037665154636979</v>
       </c>
       <c r="D10">
-        <v>1.008169663367747</v>
+        <v>1.039626636074162</v>
       </c>
       <c r="E10">
-        <v>0.9971005375355492</v>
+        <v>1.036455580531095</v>
       </c>
       <c r="F10">
-        <v>0.9901675333840882</v>
+        <v>1.045042538237022</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037097401409459</v>
+        <v>1.039660341656542</v>
       </c>
       <c r="J10">
-        <v>1.016950044435808</v>
+        <v>1.043985594087993</v>
       </c>
       <c r="K10">
-        <v>1.022392962244902</v>
+        <v>1.043059326951387</v>
       </c>
       <c r="L10">
-        <v>1.011522340755774</v>
+        <v>1.039899552159258</v>
       </c>
       <c r="M10">
-        <v>1.004716614749406</v>
+        <v>1.048456136972074</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9839406414840109</v>
+        <v>1.036894980635277</v>
       </c>
       <c r="D11">
-        <v>1.005016844556696</v>
+        <v>1.03905076312287</v>
       </c>
       <c r="E11">
-        <v>0.9936023011775844</v>
+        <v>1.035797269413578</v>
       </c>
       <c r="F11">
-        <v>0.9853715769037688</v>
+        <v>1.04413744648245</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035529379499923</v>
+        <v>1.039424741811675</v>
       </c>
       <c r="J11">
-        <v>1.013997113166113</v>
+        <v>1.043449747347724</v>
       </c>
       <c r="K11">
-        <v>1.019844766666621</v>
+        <v>1.042606593715038</v>
       </c>
       <c r="L11">
-        <v>1.008645885741554</v>
+        <v>1.039365124687688</v>
       </c>
       <c r="M11">
-        <v>1.000574739106501</v>
+        <v>1.047674643014217</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9823108450682108</v>
+        <v>1.036608841783192</v>
       </c>
       <c r="D12">
-        <v>1.00382915322974</v>
+        <v>1.038836804204969</v>
       </c>
       <c r="E12">
-        <v>0.9922848290778997</v>
+        <v>1.035552747481125</v>
       </c>
       <c r="F12">
-        <v>0.9835634588275091</v>
+        <v>1.043801251217015</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034936535633087</v>
+        <v>1.039336982850148</v>
       </c>
       <c r="J12">
-        <v>1.012883178475865</v>
+        <v>1.043250554964336</v>
       </c>
       <c r="K12">
-        <v>1.018883358569581</v>
+        <v>1.042438256338508</v>
       </c>
       <c r="L12">
-        <v>1.007561347457322</v>
+        <v>1.039166506407651</v>
       </c>
       <c r="M12">
-        <v>0.9990124803730098</v>
+        <v>1.047384262052373</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9826615711712947</v>
+        <v>1.0366702223754</v>
       </c>
       <c r="D13">
-        <v>1.004084686173693</v>
+        <v>1.038882701578389</v>
       </c>
       <c r="E13">
-        <v>0.9925682695005158</v>
+        <v>1.035605198095895</v>
       </c>
       <c r="F13">
-        <v>0.9839525466132724</v>
+        <v>1.04387336647093</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035064184086947</v>
+        <v>1.039355818618587</v>
       </c>
       <c r="J13">
-        <v>1.013122913089569</v>
+        <v>1.043293289443071</v>
       </c>
       <c r="K13">
-        <v>1.019090273793207</v>
+        <v>1.042474373079928</v>
       </c>
       <c r="L13">
-        <v>1.007794730605476</v>
+        <v>1.039209115612889</v>
       </c>
       <c r="M13">
-        <v>0.9993486944934791</v>
+        <v>1.047446554293138</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9838064284084759</v>
+        <v>1.036871329584358</v>
       </c>
       <c r="D14">
-        <v>1.004919014650633</v>
+        <v>1.039033078319436</v>
       </c>
       <c r="E14">
-        <v>0.9934937744802735</v>
+        <v>1.035777057076277</v>
       </c>
       <c r="F14">
-        <v>0.9852226733953704</v>
+        <v>1.044109656575084</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035480590911343</v>
+        <v>1.039417492664553</v>
       </c>
       <c r="J14">
-        <v>1.013905390199183</v>
+        <v>1.043433285213326</v>
       </c>
       <c r="K14">
-        <v>1.019765605913643</v>
+        <v>1.042592682411087</v>
       </c>
       <c r="L14">
-        <v>1.008556572125233</v>
+        <v>1.039348709050548</v>
       </c>
       <c r="M14">
-        <v>1.000446097523053</v>
+        <v>1.047650642075333</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9845085370721282</v>
+        <v>1.036995230102035</v>
       </c>
       <c r="D15">
-        <v>1.005430839531009</v>
+        <v>1.03912572320502</v>
       </c>
       <c r="E15">
-        <v>0.9940615763806245</v>
+        <v>1.035882945581481</v>
       </c>
       <c r="F15">
-        <v>0.986001643972291</v>
+        <v>1.044255242094187</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035735754349856</v>
+        <v>1.039455459372294</v>
       </c>
       <c r="J15">
-        <v>1.014385201787276</v>
+        <v>1.043519520645198</v>
       </c>
       <c r="K15">
-        <v>1.020179697309153</v>
+        <v>1.04266555386244</v>
       </c>
       <c r="L15">
-        <v>1.009023802525656</v>
+        <v>1.039434702815437</v>
       </c>
       <c r="M15">
-        <v>1.001119040584326</v>
+        <v>1.04777637405083</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9885464226165835</v>
+        <v>1.037716259980787</v>
       </c>
       <c r="D16">
-        <v>1.00837663918441</v>
+        <v>1.039664847327306</v>
       </c>
       <c r="E16">
-        <v>0.9973302377700494</v>
+        <v>1.036499271108785</v>
       </c>
       <c r="F16">
-        <v>0.9904821917440392</v>
+        <v>1.045102605829156</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037200040312344</v>
+        <v>1.039675943082119</v>
       </c>
       <c r="J16">
-        <v>1.017143687306644</v>
+        <v>1.044021134797382</v>
       </c>
       <c r="K16">
-        <v>1.022560041803634</v>
+        <v>1.043089349282877</v>
       </c>
       <c r="L16">
-        <v>1.011711043453781</v>
+        <v>1.03993500524666</v>
       </c>
       <c r="M16">
-        <v>1.00498825607508</v>
+        <v>1.048507988378315</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9910377834562402</v>
+        <v>1.038168434906374</v>
       </c>
       <c r="D17">
-        <v>1.010196067119754</v>
+        <v>1.040002930157531</v>
       </c>
       <c r="E17">
-        <v>0.9993496984772479</v>
+        <v>1.036885884322609</v>
       </c>
       <c r="F17">
-        <v>0.9932472751628671</v>
+        <v>1.045634131284458</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03810066298986</v>
+        <v>1.039813807758907</v>
       </c>
       <c r="J17">
-        <v>1.018844777011576</v>
+        <v>1.044335509160019</v>
       </c>
       <c r="K17">
-        <v>1.024027653340527</v>
+        <v>1.043354879286512</v>
       </c>
       <c r="L17">
-        <v>1.013369139450256</v>
+        <v>1.040248640220612</v>
       </c>
       <c r="M17">
-        <v>1.007374749197916</v>
+        <v>1.048966736741852</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9924765243344343</v>
+        <v>1.038432142631035</v>
       </c>
       <c r="D18">
-        <v>1.011247412550146</v>
+        <v>1.040200093993694</v>
       </c>
       <c r="E18">
-        <v>1.000516863150489</v>
+        <v>1.037111392669022</v>
       </c>
       <c r="F18">
-        <v>0.9948443260683738</v>
+        <v>1.04594416089859</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038619726172721</v>
+        <v>1.039894063910019</v>
       </c>
       <c r="J18">
-        <v>1.019826803864248</v>
+        <v>1.044518779724436</v>
       </c>
       <c r="K18">
-        <v>1.024874784729186</v>
+        <v>1.043509648587751</v>
       </c>
       <c r="L18">
-        <v>1.014326680823497</v>
+        <v>1.040431509515493</v>
       </c>
       <c r="M18">
-        <v>1.008752650578709</v>
+        <v>1.049234255096799</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9929646986691909</v>
+        <v>1.038522053725857</v>
       </c>
       <c r="D19">
-        <v>1.011604246345395</v>
+        <v>1.040267315996692</v>
       </c>
       <c r="E19">
-        <v>1.000913046760302</v>
+        <v>1.037188285796155</v>
       </c>
       <c r="F19">
-        <v>0.9953862582265245</v>
+        <v>1.046049873051462</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038795669777742</v>
+        <v>1.039921402406051</v>
       </c>
       <c r="J19">
-        <v>1.020159952787933</v>
+        <v>1.044581253550586</v>
       </c>
       <c r="K19">
-        <v>1.025162151573099</v>
+        <v>1.043562402314555</v>
       </c>
       <c r="L19">
-        <v>1.014651579500774</v>
+        <v>1.040493851602539</v>
       </c>
       <c r="M19">
-        <v>1.0092201350449</v>
+        <v>1.049325461544058</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9907719878904871</v>
+        <v>1.038119924788691</v>
       </c>
       <c r="D20">
-        <v>1.01000189069802</v>
+        <v>1.039966660608169</v>
       </c>
       <c r="E20">
-        <v>0.9991341499163197</v>
+        <v>1.036844404039401</v>
       </c>
       <c r="F20">
-        <v>0.9929522527894761</v>
+        <v>1.045577103676293</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038004685838867</v>
+        <v>1.039799032529107</v>
       </c>
       <c r="J20">
-        <v>1.018663327758571</v>
+        <v>1.04430178998217</v>
       </c>
       <c r="K20">
-        <v>1.023871119679685</v>
+        <v>1.043326401799737</v>
       </c>
       <c r="L20">
-        <v>1.013192241359421</v>
+        <v>1.040214997267454</v>
       </c>
       <c r="M20">
-        <v>1.007120170816976</v>
+        <v>1.048917523796446</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9834699821339461</v>
+        <v>1.036812110250713</v>
       </c>
       <c r="D21">
-        <v>1.004673792845511</v>
+        <v>1.038988797616025</v>
       </c>
       <c r="E21">
-        <v>0.9932217453486221</v>
+        <v>1.035726448784579</v>
       </c>
       <c r="F21">
-        <v>0.9848494056590115</v>
+        <v>1.04404007516227</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035358262004121</v>
+        <v>1.039399338010071</v>
       </c>
       <c r="J21">
-        <v>1.013675451128846</v>
+        <v>1.043392064238398</v>
       </c>
       <c r="K21">
-        <v>1.019567156517855</v>
+        <v>1.042557848020035</v>
       </c>
       <c r="L21">
-        <v>1.008332681878608</v>
+        <v>1.039307605255725</v>
       </c>
       <c r="M21">
-        <v>1.000123610176549</v>
+        <v>1.047590546074047</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9787372479461323</v>
+        <v>1.035989475939894</v>
       </c>
       <c r="D22">
-        <v>1.001227194549557</v>
+        <v>1.038373663153638</v>
       </c>
       <c r="E22">
-        <v>0.9893991495111468</v>
+        <v>1.035023569300584</v>
       </c>
       <c r="F22">
-        <v>0.9795993366568974</v>
+        <v>1.043073660218563</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033633774429949</v>
+        <v>1.039146606623776</v>
       </c>
       <c r="J22">
-        <v>1.010439907474731</v>
+        <v>1.042819185886846</v>
       </c>
       <c r="K22">
-        <v>1.016774379614099</v>
+        <v>1.042073631602187</v>
       </c>
       <c r="L22">
-        <v>1.005183577616363</v>
+        <v>1.03873646579238</v>
       </c>
       <c r="M22">
-        <v>0.9955860649123353</v>
+        <v>1.046755646554071</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.981260190065447</v>
+        <v>1.036425604735592</v>
       </c>
       <c r="D23">
-        <v>1.003063841919307</v>
+        <v>1.03869978752324</v>
       </c>
       <c r="E23">
-        <v>0.9914359839212974</v>
+        <v>1.035396177154049</v>
       </c>
       <c r="F23">
-        <v>0.9823979240208917</v>
+        <v>1.043585978438557</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034553916893074</v>
+        <v>1.03928071984131</v>
       </c>
       <c r="J23">
-        <v>1.012164952567449</v>
+        <v>1.043122965049098</v>
       </c>
       <c r="K23">
-        <v>1.018263436391979</v>
+        <v>1.042330418624534</v>
       </c>
       <c r="L23">
-        <v>1.006862231347802</v>
+        <v>1.039039297332619</v>
       </c>
       <c r="M23">
-        <v>0.9980052265483729</v>
+        <v>1.047198298111684</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C24">
-        <v>0.9908921339283435</v>
+        <v>1.038141844540425</v>
       </c>
       <c r="D24">
-        <v>1.010089661168261</v>
+        <v>1.03998304936158</v>
       </c>
       <c r="E24">
-        <v>0.9992315801735893</v>
+        <v>1.036863147183038</v>
       </c>
       <c r="F24">
-        <v>0.9930856093109024</v>
+        <v>1.045602871997485</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03804807306665</v>
+        <v>1.039805709307401</v>
       </c>
       <c r="J24">
-        <v>1.018745348274924</v>
+        <v>1.044317026531754</v>
       </c>
       <c r="K24">
-        <v>1.023941877943074</v>
+        <v>1.043339269889353</v>
       </c>
       <c r="L24">
-        <v>1.013272203576531</v>
+        <v>1.040230199281715</v>
       </c>
       <c r="M24">
-        <v>1.007235247279989</v>
+        <v>1.048939761198386</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.00150813340143</v>
+        <v>1.040131951944615</v>
       </c>
       <c r="D25">
-        <v>1.017857511551896</v>
+        <v>1.041470865989525</v>
       </c>
       <c r="E25">
-        <v>1.007859475281225</v>
+        <v>1.038565621229035</v>
       </c>
       <c r="F25">
-        <v>1.00487450047376</v>
+        <v>1.047943368628281</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041859166942763</v>
+        <v>1.040408735193858</v>
       </c>
       <c r="J25">
-        <v>1.025984849219774</v>
+        <v>1.045698801643551</v>
       </c>
       <c r="K25">
-        <v>1.030184796075455</v>
+        <v>1.044505679357241</v>
       </c>
       <c r="L25">
-        <v>1.020336996007845</v>
+        <v>1.041609484241801</v>
       </c>
       <c r="M25">
-        <v>1.017397614461015</v>
+        <v>1.050958217493167</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_141/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_141/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041718129476462</v>
+        <v>1.009576361163433</v>
       </c>
       <c r="D2">
-        <v>1.042656494379526</v>
+        <v>1.023776810340041</v>
       </c>
       <c r="E2">
-        <v>1.039923658474874</v>
+        <v>1.014442092968017</v>
       </c>
       <c r="F2">
-        <v>1.049810263742105</v>
+        <v>1.01384358523587</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040884733319624</v>
+        <v>1.044721789260295</v>
       </c>
       <c r="J2">
-        <v>1.04679782858849</v>
+        <v>1.031474369515524</v>
       </c>
       <c r="K2">
-        <v>1.045432565200145</v>
+        <v>1.034914543971464</v>
       </c>
       <c r="L2">
-        <v>1.042707466958246</v>
+        <v>1.025703827323234</v>
       </c>
       <c r="M2">
-        <v>1.052566286466878</v>
+        <v>1.025113367962343</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.042869221613038</v>
+        <v>1.015226434322981</v>
       </c>
       <c r="D3">
-        <v>1.043516771764116</v>
+        <v>1.027929454555253</v>
       </c>
       <c r="E3">
-        <v>1.040909820301119</v>
+        <v>1.01906503596393</v>
       </c>
       <c r="F3">
-        <v>1.051165926162506</v>
+        <v>1.020130850073531</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041227476843246</v>
+        <v>1.046706035513088</v>
       </c>
       <c r="J3">
-        <v>1.047594060588326</v>
+        <v>1.035310445740418</v>
       </c>
       <c r="K3">
-        <v>1.046103589213633</v>
+        <v>1.03821702197565</v>
       </c>
       <c r="L3">
-        <v>1.043503483737747</v>
+        <v>1.029459651874105</v>
       </c>
       <c r="M3">
-        <v>1.05373286805462</v>
+        <v>1.030512472731656</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04361378452914</v>
+        <v>1.018792956052265</v>
       </c>
       <c r="D4">
-        <v>1.044073158814578</v>
+        <v>1.030553698072854</v>
       </c>
       <c r="E4">
-        <v>1.04154798876888</v>
+        <v>1.021988886854885</v>
       </c>
       <c r="F4">
-        <v>1.05204321100008</v>
+        <v>1.024102776005545</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041447928910683</v>
+        <v>1.04794884883937</v>
       </c>
       <c r="J4">
-        <v>1.048108469608141</v>
+        <v>1.037727853682369</v>
       </c>
       <c r="K4">
-        <v>1.046536877311261</v>
+        <v>1.040296838237373</v>
       </c>
       <c r="L4">
-        <v>1.044018003664952</v>
+        <v>1.031828975717384</v>
       </c>
       <c r="M4">
-        <v>1.054487269802906</v>
+        <v>1.033918750993022</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043926735579288</v>
+        <v>1.020271851428885</v>
       </c>
       <c r="D5">
-        <v>1.044306999761361</v>
+        <v>1.031642507465629</v>
       </c>
       <c r="E5">
-        <v>1.041816288834822</v>
+        <v>1.023202597949585</v>
       </c>
       <c r="F5">
-        <v>1.052412043395755</v>
+        <v>1.025750576822752</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041540289945504</v>
+        <v>1.048461824677984</v>
       </c>
       <c r="J5">
-        <v>1.048324534994144</v>
+        <v>1.038729243751893</v>
       </c>
       <c r="K5">
-        <v>1.046718814549536</v>
+        <v>1.041158050895824</v>
       </c>
       <c r="L5">
-        <v>1.044234175411174</v>
+        <v>1.032811038434219</v>
       </c>
       <c r="M5">
-        <v>1.054804313639439</v>
+        <v>1.035330774000247</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.04397927777807</v>
+        <v>1.020518990426877</v>
       </c>
       <c r="D6">
-        <v>1.044346258935551</v>
+        <v>1.031824494653653</v>
       </c>
       <c r="E6">
-        <v>1.041861338439575</v>
+        <v>1.02340549697863</v>
       </c>
       <c r="F6">
-        <v>1.052473973333474</v>
+        <v>1.026025989758869</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041555779191745</v>
+        <v>1.048547407887269</v>
       </c>
       <c r="J6">
-        <v>1.048360802079759</v>
+        <v>1.038896525863957</v>
       </c>
       <c r="K6">
-        <v>1.046749349900623</v>
+        <v>1.04130189640642</v>
       </c>
       <c r="L6">
-        <v>1.044270463853463</v>
+        <v>1.032975126506607</v>
       </c>
       <c r="M6">
-        <v>1.054857540502967</v>
+        <v>1.035566713210534</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.043617966442717</v>
+        <v>1.01881279635351</v>
       </c>
       <c r="D7">
-        <v>1.044076283660331</v>
+        <v>1.030568302687783</v>
       </c>
       <c r="E7">
-        <v>1.041551573751472</v>
+        <v>1.022005164456915</v>
       </c>
       <c r="F7">
-        <v>1.052048139267552</v>
+        <v>1.024124879068259</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041449164288486</v>
+        <v>1.047955740149519</v>
       </c>
       <c r="J7">
-        <v>1.048111357438399</v>
+        <v>1.037741292011122</v>
       </c>
       <c r="K7">
-        <v>1.04653930921775</v>
+        <v>1.040308396766116</v>
       </c>
       <c r="L7">
-        <v>1.04402089268188</v>
+        <v>1.031842152349033</v>
       </c>
       <c r="M7">
-        <v>1.054491506574561</v>
+        <v>1.033937695828344</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042107203459481</v>
+        <v>1.011504940465771</v>
       </c>
       <c r="D8">
-        <v>1.042947285318417</v>
+        <v>1.025193598084865</v>
       </c>
       <c r="E8">
-        <v>1.040256925331787</v>
+        <v>1.016018840966503</v>
       </c>
       <c r="F8">
-        <v>1.05026840105257</v>
+        <v>1.015989014130503</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041000839884692</v>
+        <v>1.045401103744925</v>
       </c>
       <c r="J8">
-        <v>1.047067086400659</v>
+        <v>1.032784592370784</v>
       </c>
       <c r="K8">
-        <v>1.04565952955525</v>
+        <v>1.036042786257822</v>
       </c>
       <c r="L8">
-        <v>1.04297660014253</v>
+        <v>1.026986112116741</v>
       </c>
       <c r="M8">
-        <v>1.052960633593913</v>
+        <v>1.026956673519211</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039442901178528</v>
+        <v>0.9978965890635551</v>
       </c>
       <c r="D9">
-        <v>1.040955757544342</v>
+        <v>1.015212176933051</v>
       </c>
       <c r="E9">
-        <v>1.037975986035269</v>
+        <v>1.004920045636926</v>
       </c>
       <c r="F9">
-        <v>1.047132777763804</v>
+        <v>1.000862569482479</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040200661456431</v>
+        <v>1.040567886524309</v>
       </c>
       <c r="J9">
-        <v>1.045220732527836</v>
+        <v>1.023523843468737</v>
       </c>
       <c r="K9">
-        <v>1.044102253303261</v>
+        <v>1.028063176029632</v>
       </c>
       <c r="L9">
-        <v>1.041132131337511</v>
+        <v>1.017933799715571</v>
       </c>
       <c r="M9">
-        <v>1.050259461606173</v>
+        <v>1.013941667583189</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.037665154636979</v>
+        <v>0.9882628852117253</v>
       </c>
       <c r="D10">
-        <v>1.039626636074162</v>
+        <v>1.008169663367747</v>
       </c>
       <c r="E10">
-        <v>1.036455580531095</v>
+        <v>0.9971005375355495</v>
       </c>
       <c r="F10">
-        <v>1.045042538237022</v>
+        <v>0.9901675333840886</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039660341656542</v>
+        <v>1.037097401409459</v>
       </c>
       <c r="J10">
-        <v>1.043985594087993</v>
+        <v>1.016950044435808</v>
       </c>
       <c r="K10">
-        <v>1.043059326951387</v>
+        <v>1.022392962244902</v>
       </c>
       <c r="L10">
-        <v>1.039899552159258</v>
+        <v>1.011522340755774</v>
       </c>
       <c r="M10">
-        <v>1.048456136972074</v>
+        <v>1.004716614749406</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.036894980635277</v>
+        <v>0.9839406414840082</v>
       </c>
       <c r="D11">
-        <v>1.03905076312287</v>
+        <v>1.005016844556694</v>
       </c>
       <c r="E11">
-        <v>1.035797269413578</v>
+        <v>0.9936023011775815</v>
       </c>
       <c r="F11">
-        <v>1.04413744648245</v>
+        <v>0.985371576903766</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039424741811675</v>
+        <v>1.035529379499921</v>
       </c>
       <c r="J11">
-        <v>1.043449747347724</v>
+        <v>1.013997113166111</v>
       </c>
       <c r="K11">
-        <v>1.042606593715038</v>
+        <v>1.019844766666619</v>
       </c>
       <c r="L11">
-        <v>1.039365124687688</v>
+        <v>1.008645885741552</v>
       </c>
       <c r="M11">
-        <v>1.047674643014217</v>
+        <v>1.000574739106498</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.036608841783192</v>
+        <v>0.9823108450682113</v>
       </c>
       <c r="D12">
-        <v>1.038836804204969</v>
+        <v>1.00382915322974</v>
       </c>
       <c r="E12">
-        <v>1.035552747481125</v>
+        <v>0.9922848290779002</v>
       </c>
       <c r="F12">
-        <v>1.043801251217015</v>
+        <v>0.9835634588275096</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039336982850148</v>
+        <v>1.034936535633087</v>
       </c>
       <c r="J12">
-        <v>1.043250554964336</v>
+        <v>1.012883178475865</v>
       </c>
       <c r="K12">
-        <v>1.042438256338508</v>
+        <v>1.018883358569581</v>
       </c>
       <c r="L12">
-        <v>1.039166506407651</v>
+        <v>1.007561347457322</v>
       </c>
       <c r="M12">
-        <v>1.047384262052373</v>
+        <v>0.9990124803730105</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.0366702223754</v>
+        <v>0.9826615711712955</v>
       </c>
       <c r="D13">
-        <v>1.038882701578389</v>
+        <v>1.004084686173693</v>
       </c>
       <c r="E13">
-        <v>1.035605198095895</v>
+        <v>0.9925682695005165</v>
       </c>
       <c r="F13">
-        <v>1.04387336647093</v>
+        <v>0.9839525466132727</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039355818618587</v>
+        <v>1.035064184086947</v>
       </c>
       <c r="J13">
-        <v>1.043293289443071</v>
+        <v>1.01312291308957</v>
       </c>
       <c r="K13">
-        <v>1.042474373079928</v>
+        <v>1.019090273793208</v>
       </c>
       <c r="L13">
-        <v>1.039209115612889</v>
+        <v>1.007794730605477</v>
       </c>
       <c r="M13">
-        <v>1.047446554293138</v>
+        <v>0.9993486944934795</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.036871329584358</v>
+        <v>0.9838064284084759</v>
       </c>
       <c r="D14">
-        <v>1.039033078319436</v>
+        <v>1.004919014650633</v>
       </c>
       <c r="E14">
-        <v>1.035777057076277</v>
+        <v>0.9934937744802738</v>
       </c>
       <c r="F14">
-        <v>1.044109656575084</v>
+        <v>0.9852226733953704</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039417492664553</v>
+        <v>1.035480590911343</v>
       </c>
       <c r="J14">
-        <v>1.043433285213326</v>
+        <v>1.013905390199183</v>
       </c>
       <c r="K14">
-        <v>1.042592682411087</v>
+        <v>1.019765605913643</v>
       </c>
       <c r="L14">
-        <v>1.039348709050548</v>
+        <v>1.008556572125233</v>
       </c>
       <c r="M14">
-        <v>1.047650642075333</v>
+        <v>1.000446097523053</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.036995230102035</v>
+        <v>0.9845085370721278</v>
       </c>
       <c r="D15">
-        <v>1.03912572320502</v>
+        <v>1.005430839531009</v>
       </c>
       <c r="E15">
-        <v>1.035882945581481</v>
+        <v>0.9940615763806244</v>
       </c>
       <c r="F15">
-        <v>1.044255242094187</v>
+        <v>0.9860016439722906</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039455459372294</v>
+        <v>1.035735754349855</v>
       </c>
       <c r="J15">
-        <v>1.043519520645198</v>
+        <v>1.014385201787276</v>
       </c>
       <c r="K15">
-        <v>1.04266555386244</v>
+        <v>1.020179697309153</v>
       </c>
       <c r="L15">
-        <v>1.039434702815437</v>
+        <v>1.009023802525656</v>
       </c>
       <c r="M15">
-        <v>1.04777637405083</v>
+        <v>1.001119040584326</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.037716259980787</v>
+        <v>0.9885464226165821</v>
       </c>
       <c r="D16">
-        <v>1.039664847327306</v>
+        <v>1.008376639184409</v>
       </c>
       <c r="E16">
-        <v>1.036499271108785</v>
+        <v>0.9973302377700481</v>
       </c>
       <c r="F16">
-        <v>1.045102605829156</v>
+        <v>0.9904821917440374</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039675943082119</v>
+        <v>1.037200040312344</v>
       </c>
       <c r="J16">
-        <v>1.044021134797382</v>
+        <v>1.017143687306642</v>
       </c>
       <c r="K16">
-        <v>1.043089349282877</v>
+        <v>1.022560041803633</v>
       </c>
       <c r="L16">
-        <v>1.03993500524666</v>
+        <v>1.01171104345378</v>
       </c>
       <c r="M16">
-        <v>1.048507988378315</v>
+        <v>1.004988256075078</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.038168434906374</v>
+        <v>0.9910377834562406</v>
       </c>
       <c r="D17">
-        <v>1.040002930157531</v>
+        <v>1.010196067119753</v>
       </c>
       <c r="E17">
-        <v>1.036885884322609</v>
+        <v>0.999349698477248</v>
       </c>
       <c r="F17">
-        <v>1.045634131284458</v>
+        <v>0.9932472751628673</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039813807758907</v>
+        <v>1.03810066298986</v>
       </c>
       <c r="J17">
-        <v>1.044335509160019</v>
+        <v>1.018844777011577</v>
       </c>
       <c r="K17">
-        <v>1.043354879286512</v>
+        <v>1.024027653340527</v>
       </c>
       <c r="L17">
-        <v>1.040248640220612</v>
+        <v>1.013369139450257</v>
       </c>
       <c r="M17">
-        <v>1.048966736741852</v>
+        <v>1.007374749197916</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.038432142631035</v>
+        <v>0.992476524334435</v>
       </c>
       <c r="D18">
-        <v>1.040200093993694</v>
+        <v>1.011247412550147</v>
       </c>
       <c r="E18">
-        <v>1.037111392669022</v>
+        <v>1.000516863150489</v>
       </c>
       <c r="F18">
-        <v>1.04594416089859</v>
+        <v>0.9948443260683741</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039894063910019</v>
+        <v>1.038619726172721</v>
       </c>
       <c r="J18">
-        <v>1.044518779724436</v>
+        <v>1.019826803864249</v>
       </c>
       <c r="K18">
-        <v>1.043509648587751</v>
+        <v>1.024874784729186</v>
       </c>
       <c r="L18">
-        <v>1.040431509515493</v>
+        <v>1.014326680823498</v>
       </c>
       <c r="M18">
-        <v>1.049234255096799</v>
+        <v>1.00875265057871</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.038522053725857</v>
+        <v>0.9929646986691911</v>
       </c>
       <c r="D19">
-        <v>1.040267315996692</v>
+        <v>1.011604246345395</v>
       </c>
       <c r="E19">
-        <v>1.037188285796155</v>
+        <v>1.000913046760302</v>
       </c>
       <c r="F19">
-        <v>1.046049873051462</v>
+        <v>0.9953862582265244</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039921402406051</v>
+        <v>1.038795669777743</v>
       </c>
       <c r="J19">
-        <v>1.044581253550586</v>
+        <v>1.020159952787933</v>
       </c>
       <c r="K19">
-        <v>1.043562402314555</v>
+        <v>1.025162151573099</v>
       </c>
       <c r="L19">
-        <v>1.040493851602539</v>
+        <v>1.014651579500774</v>
       </c>
       <c r="M19">
-        <v>1.049325461544058</v>
+        <v>1.0092201350449</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.038119924788691</v>
+        <v>0.9907719878904873</v>
       </c>
       <c r="D20">
-        <v>1.039966660608169</v>
+        <v>1.01000189069802</v>
       </c>
       <c r="E20">
-        <v>1.036844404039401</v>
+        <v>0.9991341499163198</v>
       </c>
       <c r="F20">
-        <v>1.045577103676293</v>
+        <v>0.9929522527894761</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039799032529107</v>
+        <v>1.038004685838867</v>
       </c>
       <c r="J20">
-        <v>1.04430178998217</v>
+        <v>1.018663327758571</v>
       </c>
       <c r="K20">
-        <v>1.043326401799737</v>
+        <v>1.023871119679685</v>
       </c>
       <c r="L20">
-        <v>1.040214997267454</v>
+        <v>1.013192241359422</v>
       </c>
       <c r="M20">
-        <v>1.048917523796446</v>
+        <v>1.007120170816976</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.036812110250713</v>
+        <v>0.9834699821339474</v>
       </c>
       <c r="D21">
-        <v>1.038988797616025</v>
+        <v>1.004673792845513</v>
       </c>
       <c r="E21">
-        <v>1.035726448784579</v>
+        <v>0.9932217453486231</v>
       </c>
       <c r="F21">
-        <v>1.04404007516227</v>
+        <v>0.984849405659013</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039399338010071</v>
+        <v>1.035358262004122</v>
       </c>
       <c r="J21">
-        <v>1.043392064238398</v>
+        <v>1.013675451128848</v>
       </c>
       <c r="K21">
-        <v>1.042557848020035</v>
+        <v>1.019567156517856</v>
       </c>
       <c r="L21">
-        <v>1.039307605255725</v>
+        <v>1.008332681878609</v>
       </c>
       <c r="M21">
-        <v>1.047590546074047</v>
+        <v>1.000123610176551</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.035989475939894</v>
+        <v>0.9787372479461319</v>
       </c>
       <c r="D22">
-        <v>1.038373663153638</v>
+        <v>1.001227194549557</v>
       </c>
       <c r="E22">
-        <v>1.035023569300584</v>
+        <v>0.9893991495111464</v>
       </c>
       <c r="F22">
-        <v>1.043073660218563</v>
+        <v>0.979599336656897</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039146606623776</v>
+        <v>1.033633774429949</v>
       </c>
       <c r="J22">
-        <v>1.042819185886846</v>
+        <v>1.01043990747473</v>
       </c>
       <c r="K22">
-        <v>1.042073631602187</v>
+        <v>1.016774379614098</v>
       </c>
       <c r="L22">
-        <v>1.03873646579238</v>
+        <v>1.005183577616362</v>
       </c>
       <c r="M22">
-        <v>1.046755646554071</v>
+        <v>0.9955860649123348</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.036425604735592</v>
+        <v>0.981260190065447</v>
       </c>
       <c r="D23">
-        <v>1.03869978752324</v>
+        <v>1.003063841919307</v>
       </c>
       <c r="E23">
-        <v>1.035396177154049</v>
+        <v>0.9914359839212975</v>
       </c>
       <c r="F23">
-        <v>1.043585978438557</v>
+        <v>0.9823979240208919</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03928071984131</v>
+        <v>1.034553916893074</v>
       </c>
       <c r="J23">
-        <v>1.043122965049098</v>
+        <v>1.012164952567449</v>
       </c>
       <c r="K23">
-        <v>1.042330418624534</v>
+        <v>1.018263436391979</v>
       </c>
       <c r="L23">
-        <v>1.039039297332619</v>
+        <v>1.006862231347802</v>
       </c>
       <c r="M23">
-        <v>1.047198298111684</v>
+        <v>0.998005226548373</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.038141844540425</v>
+        <v>0.9908921339283432</v>
       </c>
       <c r="D24">
-        <v>1.03998304936158</v>
+        <v>1.010089661168261</v>
       </c>
       <c r="E24">
-        <v>1.036863147183038</v>
+        <v>0.9992315801735887</v>
       </c>
       <c r="F24">
-        <v>1.045602871997485</v>
+        <v>0.9930856093109018</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039805709307401</v>
+        <v>1.03804807306665</v>
       </c>
       <c r="J24">
-        <v>1.044317026531754</v>
+        <v>1.018745348274924</v>
       </c>
       <c r="K24">
-        <v>1.043339269889353</v>
+        <v>1.023941877943074</v>
       </c>
       <c r="L24">
-        <v>1.040230199281715</v>
+        <v>1.01327220357653</v>
       </c>
       <c r="M24">
-        <v>1.048939761198386</v>
+        <v>1.007235247279988</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040131951944615</v>
+        <v>1.00150813340143</v>
       </c>
       <c r="D25">
-        <v>1.041470865989525</v>
+        <v>1.017857511551896</v>
       </c>
       <c r="E25">
-        <v>1.038565621229035</v>
+        <v>1.007859475281224</v>
       </c>
       <c r="F25">
-        <v>1.047943368628281</v>
+        <v>1.004874500473759</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040408735193858</v>
+        <v>1.041859166942762</v>
       </c>
       <c r="J25">
-        <v>1.045698801643551</v>
+        <v>1.025984849219774</v>
       </c>
       <c r="K25">
-        <v>1.044505679357241</v>
+        <v>1.030184796075455</v>
       </c>
       <c r="L25">
-        <v>1.041609484241801</v>
+        <v>1.020336996007845</v>
       </c>
       <c r="M25">
-        <v>1.050958217493167</v>
+        <v>1.017397614461014</v>
       </c>
     </row>
   </sheetData>
